--- a/Slides/data/Linha-Interceptadora.xlsx
+++ b/Slides/data/Linha-Interceptadora.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FL03039-Inventario-Florestal\Slides\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37cd5d8700b5386d/GitHub/FL03039-Inventario-Florestal/Slides/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B29E7AE-ED65-4FE1-B9E3-15BC0679521E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0B29E7AE-ED65-4FE1-B9E3-15BC0679521E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F3DE0FF-CDF4-4A85-A555-C98DF71FDC41}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,17 +541,45 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -571,7 +599,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -583,6 +610,35 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -618,6 +674,35 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -635,7 +720,9 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -643,35 +730,6 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -710,63 +768,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -782,13 +783,14 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -808,13 +810,15 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -840,10 +844,9 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -868,15 +871,82 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -894,52 +964,21 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -959,6 +998,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -971,6 +1011,36 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -990,21 +1060,18 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1024,34 +1091,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1087,6 +1127,67 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -1239,8 +1340,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1267,7 +1366,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1464,104 +1562,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1974,26 +1974,26 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6EAEA5DA-2BFC-4C55-B266-085B19EBEE96}" name="Tabela134" displayName="Tabela134" ref="A1:D7" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" totalsRowDxfId="41" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="40">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3E3995C4-B6C9-4502-8B65-CF7FBE0B7139}" name="Árvore" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{76C0529C-508A-4B46-B6BA-A47A11AAF9BF}" name="di (cm)" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{B05041E5-4FB0-47FF-B979-80274DB74894}" name="GD" dataDxfId="5" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{3E3995C4-B6C9-4502-8B65-CF7FBE0B7139}" name="Árvore" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{76C0529C-508A-4B46-B6BA-A47A11AAF9BF}" name="di (cm)" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{B05041E5-4FB0-47FF-B979-80274DB74894}" name="GD" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>#REF!/PI()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{778D9B24-9E34-4C0E-BE81-96B6A1EF7BD8}" name="Densidade básica (g.cm3)" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{778D9B24-9E34-4C0E-BE81-96B6A1EF7BD8}" name="Densidade básica (g.cm3)" dataDxfId="33" totalsRowDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BE8BFFE-2C54-43BA-942C-CDE8EDB9273B}" name="Tabela1342" displayName="Tabela1342" ref="A20:D27" totalsRowCount="1" headerRowDxfId="39" dataDxfId="37" totalsRowDxfId="35" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BE8BFFE-2C54-43BA-942C-CDE8EDB9273B}" name="Tabela1342" displayName="Tabela1342" ref="A20:D27" totalsRowCount="1" headerRowDxfId="31" dataDxfId="29" totalsRowDxfId="27" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="26">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{21CCA17D-F540-4933-BB1C-3DD84FDE25DB}" name="Árvore" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{6D8FDFDD-F509-4B3A-885E-EF8BFA820235}" name="di (cm)" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{C01927E7-CB8B-4ED7-A343-C0B970AB43DC}" name="GD" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="1" xr3:uid="{21CCA17D-F540-4933-BB1C-3DD84FDE25DB}" name="Árvore" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{6D8FDFDD-F509-4B3A-885E-EF8BFA820235}" name="di (cm)" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{C01927E7-CB8B-4ED7-A343-C0B970AB43DC}" name="GD" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>#REF!/PI()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{453D4401-EC8C-4860-90E5-263462BB634B}" name="vi (m³.ha-1)" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="2" xr3:uid="{453D4401-EC8C-4860-90E5-263462BB634B}" name="vi (m³.ha-1)" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>((PI()^2)/(8*20))*B21^2</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tabela1342[vi (m³.ha-1)])</totalsRowFormula>
     </tableColumn>
@@ -2003,20 +2003,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B3ED91C-92A0-49A8-99F9-852F2C8A42D7}" name="Tabela13423" displayName="Tabela13423" ref="A32:F39" totalsRowCount="1" headerRowDxfId="25" dataDxfId="23" totalsRowDxfId="21" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B3ED91C-92A0-49A8-99F9-852F2C8A42D7}" name="Tabela13423" displayName="Tabela13423" ref="A32:F39" totalsRowCount="1" headerRowDxfId="17" dataDxfId="15" totalsRowDxfId="13" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="12">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{770804DC-2C40-4069-84AC-63DE092BA0C5}" name="Árvore" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{09C008C2-2801-40CF-862D-E6178DEC1F72}" name="di (cm)" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{12819035-D500-43C5-951E-1725DC94C936}" name="GD" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="1" xr3:uid="{770804DC-2C40-4069-84AC-63DE092BA0C5}" name="Árvore" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{09C008C2-2801-40CF-862D-E6178DEC1F72}" name="di (cm)" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{12819035-D500-43C5-951E-1725DC94C936}" name="GD" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>#REF!/PI()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{64610BAF-FD46-411B-8A0F-E1DBD3224068}" name="vi (m³.ha-1)" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="2" xr3:uid="{64610BAF-FD46-411B-8A0F-E1DBD3224068}" name="vi (m³.ha-1)" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>D21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6B2800C4-7926-41A4-970E-56F4EB2C6266}" name="Densidade (g.cm3)" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="3" xr3:uid="{6B2800C4-7926-41A4-970E-56F4EB2C6266}" name="Densidade (g.cm3)" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{308337C5-8281-4DA1-A7B8-E1C8F2AFA53D}" name="Massa seca (Mg.ha-1)" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="9" xr3:uid="{308337C5-8281-4DA1-A7B8-E1C8F2AFA53D}" name="Massa seca (Mg.ha-1)" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabela13423[[#This Row],[vi (m³.ha-1)]]*Tabela13423[[#This Row],[Densidade (g.cm3)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tabela13423[Massa seca (Mg.ha-1)])</totalsRowFormula>
     </tableColumn>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1A7DD8-9FE6-46A5-9E12-0C16529A2B0C}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="292" zoomScaleNormal="292" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="94" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
